--- a/backend/public/format/fasyankes.xlsx
+++ b/backend/public/format/fasyankes.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9105"/>
+    <workbookView windowWidth="23940" windowHeight="8805"/>
   </bookViews>
   <sheets>
-    <sheet name="FASYANKES" sheetId="1" r:id="rId1"/>
+    <sheet name="Fasyankes" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="388">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Nama Fasyankes</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="392">
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nama</t>
   </si>
   <si>
     <t>1</t>
@@ -1178,6 +1178,18 @@
   </si>
   <si>
     <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>BBKPM Garut</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>BBKPM Cianjur</t>
   </si>
 </sst>
 </file>
@@ -1187,8 +1199,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1205,25 +1217,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1236,7 +1241,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1250,13 +1270,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1265,25 +1278,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1291,13 +1294,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1313,7 +1309,45 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,28 +1355,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1357,7 +1369,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1477,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1381,163 +1549,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1548,6 +1560,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1570,6 +1597,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1580,21 +1622,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1633,163 +1660,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2117,7 +2129,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B195"/>
+  <dimension ref="A1:B197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3685,6 +3697,22 @@
         <v>386</v>
       </c>
     </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>388</v>
+      </c>
+      <c r="B196" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" t="s">
+        <v>391</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
